--- a/tabular/extension/srlv/srlv-curated.xlsx
+++ b/tabular/extension/srlv/srlv-curated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/srlv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593CF1F-FDEA-2441-8305-73CD2FCF92E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD64930-5536-524B-8EDD-0E1AC831F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16400" yWindow="1840" windowWidth="33160" windowHeight="23180" xr2:uid="{8CA00448-2F7E-B147-B747-D602BF947B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14446" uniqueCount="3092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14461" uniqueCount="3093">
   <si>
     <t>pubmed_id</t>
   </si>
@@ -9310,6 +9310,9 @@
   </si>
   <si>
     <t>XM-MDV30</t>
+  </si>
+  <si>
+    <t>Subtype-old</t>
   </si>
 </sst>
 </file>
@@ -9762,10 +9765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2CC75-2160-0145-8638-7E1B5E2D6B8C}">
-  <dimension ref="A1:K1822"/>
+  <dimension ref="A1:L1822"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A1778" workbookViewId="0">
-      <selection activeCell="A1820" sqref="A1820"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A1784" workbookViewId="0">
+      <selection activeCell="H1825" sqref="H1825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9777,11 +9780,11 @@
     <col min="7" max="7" width="5" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" style="15" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2941</v>
       </c>
@@ -9815,8 +9818,11 @@
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="13" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>3083</v>
       </c>
@@ -9833,11 +9839,11 @@
       <c r="F2" s="11">
         <v>1994</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="14">
-        <v>6</v>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I2" s="11">
         <v>676</v>
@@ -9848,8 +9854,11 @@
       <c r="K2" s="12">
         <v>7782784</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>3079</v>
       </c>
@@ -9866,11 +9875,11 @@
       <c r="F3" s="11">
         <v>2011</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="14">
-        <v>15</v>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>3080</v>
@@ -9881,8 +9890,11 @@
       <c r="K3" s="12">
         <v>23022680</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>3081</v>
       </c>
@@ -9899,11 +9911,11 @@
       <c r="F4" s="11">
         <v>2008</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="14">
-        <v>14</v>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>3082</v>
@@ -9914,8 +9926,11 @@
       <c r="K4" s="12">
         <v>23022680</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>3073</v>
       </c>
@@ -9932,11 +9947,11 @@
       <c r="F5" s="11">
         <v>2008</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="14">
-        <v>13</v>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I5" s="11">
         <v>16</v>
@@ -9947,8 +9962,11 @@
       <c r="K5" s="12">
         <v>22155513</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>3074</v>
       </c>
@@ -9965,11 +9983,11 @@
       <c r="F6" s="11">
         <v>2008</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="14">
-        <v>12</v>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I6" s="11">
         <v>4007</v>
@@ -9980,8 +9998,11 @@
       <c r="K6" s="12">
         <v>22155513</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>3075</v>
       </c>
@@ -9998,11 +10019,11 @@
       <c r="F7" s="11">
         <v>2010</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="14">
-        <v>11</v>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3076</v>
@@ -10011,8 +10032,11 @@
         <v>648</v>
       </c>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>3077</v>
       </c>
@@ -10029,11 +10053,11 @@
       <c r="F8" s="11">
         <v>2010</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="14">
-        <v>9</v>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>3078</v>
@@ -10044,8 +10068,11 @@
       <c r="K8" s="12">
         <v>21858464</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>3069</v>
       </c>
@@ -10062,7 +10089,7 @@
       <c r="F9" s="11">
         <v>2005</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -10075,8 +10102,11 @@
         <v>1130</v>
       </c>
       <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="14" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>3071</v>
       </c>
@@ -10093,11 +10123,11 @@
       <c r="F10" s="11">
         <v>2006</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="14">
-        <v>8</v>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>3072</v>
@@ -10106,8 +10136,11 @@
         <v>1305</v>
       </c>
       <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>3065</v>
       </c>
@@ -10124,11 +10157,11 @@
       <c r="F11" s="11">
         <v>1999</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="14">
-        <v>5</v>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>266</v>
@@ -10139,8 +10172,11 @@
       <c r="K11" s="12">
         <v>14967484</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>3066</v>
       </c>
@@ -10157,11 +10193,11 @@
       <c r="F12" s="11">
         <v>1999</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="14">
-        <v>3</v>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>3067</v>
@@ -10172,8 +10208,11 @@
       <c r="K12" s="12">
         <v>14967484</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>3068</v>
       </c>
@@ -10190,11 +10229,11 @@
       <c r="F13" s="11">
         <v>1999</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="14">
-        <v>7</v>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>301</v>
@@ -10205,8 +10244,11 @@
       <c r="K13" s="12">
         <v>14967484</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
@@ -10241,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
@@ -10276,7 +10318,7 @@
         <v>21858464</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -73465,8 +73507,8 @@
       <c r="G1821" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1821" s="14">
-        <v>2</v>
+      <c r="H1821" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I1821" s="11" t="s">
         <v>3090</v>
@@ -73496,8 +73538,8 @@
       <c r="G1822" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1822" s="14">
-        <v>2</v>
+      <c r="H1822" s="14" t="s">
+        <v>2948</v>
       </c>
       <c r="I1822" s="11" t="s">
         <v>3091</v>
